--- a/Code/Results/Cases/Case_5_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25894035411669</v>
+        <v>20.76321629402823</v>
       </c>
       <c r="C2">
-        <v>12.99176045370421</v>
+        <v>6.977608749697943</v>
       </c>
       <c r="D2">
-        <v>10.5443261437176</v>
+        <v>10.27562151199135</v>
       </c>
       <c r="E2">
-        <v>7.245365470489963</v>
+        <v>10.16221892711333</v>
       </c>
       <c r="F2">
-        <v>64.12445203638097</v>
+        <v>53.19640514517848</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.175790983413182</v>
+        <v>10.0774362490374</v>
       </c>
       <c r="M2">
-        <v>12.53917535502079</v>
+        <v>17.67519768825073</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72362133337169</v>
+        <v>20.56136534886739</v>
       </c>
       <c r="C3">
-        <v>12.09670320904021</v>
+        <v>6.545288562992136</v>
       </c>
       <c r="D3">
-        <v>10.13612643714216</v>
+        <v>10.15621449206182</v>
       </c>
       <c r="E3">
-        <v>7.169722176053954</v>
+        <v>10.13950400312904</v>
       </c>
       <c r="F3">
-        <v>60.52158191526645</v>
+        <v>52.08178299165888</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.109759934385859</v>
+        <v>10.09209268637333</v>
       </c>
       <c r="M3">
-        <v>12.05479119475908</v>
+        <v>17.67393970846742</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.8607607042934</v>
+        <v>20.44576969684753</v>
       </c>
       <c r="C4">
-        <v>11.52635110431724</v>
+        <v>6.264247296778926</v>
       </c>
       <c r="D4">
-        <v>9.883851572180845</v>
+        <v>10.08222054588478</v>
       </c>
       <c r="E4">
-        <v>7.123766024032545</v>
+        <v>10.12499934053215</v>
       </c>
       <c r="F4">
-        <v>58.26075519414089</v>
+        <v>51.39215742805882</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.072943908010191</v>
+        <v>10.10261598828078</v>
       </c>
       <c r="M4">
-        <v>11.76335605890058</v>
+        <v>17.67828721713852</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.50459605630786</v>
+        <v>20.40081852552269</v>
       </c>
       <c r="C5">
-        <v>11.28849216677777</v>
+        <v>6.145800879674189</v>
       </c>
       <c r="D5">
-        <v>9.780620310630091</v>
+        <v>10.05191071914751</v>
       </c>
       <c r="E5">
-        <v>7.105107124820353</v>
+        <v>10.11894723115809</v>
       </c>
       <c r="F5">
-        <v>57.32740430032636</v>
+        <v>51.11011740943168</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.058845347988717</v>
+        <v>10.10728735383756</v>
       </c>
       <c r="M5">
-        <v>11.64616332446432</v>
+        <v>17.68134529523607</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44518697112516</v>
+        <v>20.39348614657108</v>
       </c>
       <c r="C6">
-        <v>11.24866201128614</v>
+        <v>6.125896313449733</v>
       </c>
       <c r="D6">
-        <v>9.763452929519962</v>
+        <v>10.04686872945208</v>
       </c>
       <c r="E6">
-        <v>7.102011501632853</v>
+        <v>10.11793371346347</v>
       </c>
       <c r="F6">
-        <v>57.17170442742416</v>
+        <v>51.06323286136544</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.056557977058614</v>
+        <v>10.10808615715359</v>
       </c>
       <c r="M6">
-        <v>11.62680068014776</v>
+        <v>17.6819307377885</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85597547435518</v>
+        <v>20.44515467217429</v>
       </c>
       <c r="C7">
-        <v>11.5231655201269</v>
+        <v>6.262665753540077</v>
       </c>
       <c r="D7">
-        <v>9.88246109620775</v>
+        <v>10.08181239341771</v>
       </c>
       <c r="E7">
-        <v>7.123514173102031</v>
+        <v>10.12491829344944</v>
       </c>
       <c r="F7">
-        <v>58.24821605708856</v>
+        <v>51.38835742474635</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.072750150829453</v>
+        <v>10.10267743738784</v>
       </c>
       <c r="M7">
-        <v>11.76176909930189</v>
+        <v>17.67832325266087</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.72677228771871</v>
+        <v>20.6919228460544</v>
       </c>
       <c r="C8">
-        <v>12.68732215173496</v>
+        <v>6.831781386851278</v>
       </c>
       <c r="D8">
-        <v>10.40390391113591</v>
+        <v>10.2345988211957</v>
       </c>
       <c r="E8">
-        <v>7.219147293932046</v>
+        <v>10.15450187114364</v>
       </c>
       <c r="F8">
-        <v>62.89232066642388</v>
+        <v>52.81335284625705</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.152229365961144</v>
+        <v>10.08217331218374</v>
       </c>
       <c r="M8">
-        <v>12.37095104883413</v>
+        <v>17.67370094145011</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.4429048976384</v>
+        <v>21.23924707961427</v>
       </c>
       <c r="C9">
-        <v>14.81660584420592</v>
+        <v>7.82417764835749</v>
       </c>
       <c r="D9">
-        <v>11.4152836992499</v>
+        <v>10.52823790623448</v>
       </c>
       <c r="E9">
-        <v>7.41341966475359</v>
+        <v>10.20814250218243</v>
       </c>
       <c r="F9">
-        <v>71.61786206572435</v>
+        <v>55.55317911498521</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.339289337254164</v>
+        <v>10.0540684554424</v>
       </c>
       <c r="M9">
-        <v>13.81451578522655</v>
+        <v>17.70527014309141</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.02783258550907</v>
+        <v>21.67600274356195</v>
       </c>
       <c r="C10">
-        <v>16.30631534443796</v>
+        <v>8.478250637466774</v>
       </c>
       <c r="D10">
-        <v>12.1561222418059</v>
+        <v>10.73953937687208</v>
       </c>
       <c r="E10">
-        <v>7.565016839826836</v>
+        <v>10.24495939471997</v>
       </c>
       <c r="F10">
-        <v>77.82184008227487</v>
+        <v>57.51628383688244</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.498323579633664</v>
+        <v>10.04081115358287</v>
       </c>
       <c r="M10">
-        <v>15.25101836080341</v>
+        <v>17.75319598954592</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.17901339239236</v>
+        <v>21.8812916236734</v>
       </c>
       <c r="C11">
-        <v>16.97317745366824</v>
+        <v>8.759620414251277</v>
       </c>
       <c r="D11">
-        <v>12.49436764326051</v>
+        <v>10.83453680030568</v>
       </c>
       <c r="E11">
-        <v>7.637257557978545</v>
+        <v>10.26116114932778</v>
       </c>
       <c r="F11">
-        <v>80.61099556091122</v>
+        <v>58.395286151267</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.576061221172375</v>
+        <v>10.03638687428098</v>
       </c>
       <c r="M11">
-        <v>15.88742534080985</v>
+        <v>17.78034195012398</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.61211387160715</v>
+        <v>21.959898871699</v>
       </c>
       <c r="C12">
-        <v>17.22470598963685</v>
+        <v>8.863852382217969</v>
       </c>
       <c r="D12">
-        <v>12.62283095212061</v>
+        <v>10.87033426203834</v>
       </c>
       <c r="E12">
-        <v>7.665227112858652</v>
+        <v>10.26721901117615</v>
       </c>
       <c r="F12">
-        <v>81.66385696667639</v>
+        <v>58.72587409507355</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.606345587334052</v>
+        <v>10.03494257431575</v>
       </c>
       <c r="M12">
-        <v>16.12637397106731</v>
+        <v>17.7913860556454</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51895031366243</v>
+        <v>21.94293205826422</v>
       </c>
       <c r="C13">
-        <v>17.17056907320654</v>
+        <v>8.841507047008177</v>
       </c>
       <c r="D13">
-        <v>12.59514350605648</v>
+        <v>10.86263269005848</v>
       </c>
       <c r="E13">
-        <v>7.659173486091</v>
+        <v>10.2659177652627</v>
       </c>
       <c r="F13">
-        <v>81.43722530511931</v>
+        <v>58.65478095806834</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.599784348684073</v>
+        <v>10.03524335246427</v>
       </c>
       <c r="M13">
-        <v>16.07499570993449</v>
+        <v>17.78897358077524</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.21469673406488</v>
+        <v>21.88774174614233</v>
       </c>
       <c r="C14">
-        <v>16.99388725003602</v>
+        <v>8.768242016561469</v>
       </c>
       <c r="D14">
-        <v>12.50492748972242</v>
+        <v>10.83748548706565</v>
       </c>
       <c r="E14">
-        <v>7.639545410061348</v>
+        <v>10.26166107746948</v>
       </c>
       <c r="F14">
-        <v>80.69767218597185</v>
+        <v>58.42253073841937</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.578535301317171</v>
+        <v>10.03626341953428</v>
       </c>
       <c r="M14">
-        <v>15.90712215357829</v>
+        <v>17.78123525927684</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.02798885432601</v>
+        <v>21.8540468012027</v>
       </c>
       <c r="C15">
-        <v>16.885553091075</v>
+        <v>8.723063649627303</v>
       </c>
       <c r="D15">
-        <v>12.44972358863851</v>
+        <v>10.82205875991609</v>
       </c>
       <c r="E15">
-        <v>7.627607286451431</v>
+        <v>10.25904369005465</v>
       </c>
       <c r="F15">
-        <v>80.24429022369497</v>
+        <v>58.27996772153682</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.565632293919175</v>
+        <v>10.03691833422571</v>
       </c>
       <c r="M15">
-        <v>15.80404188971464</v>
+        <v>17.77659474316795</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.9521614805657</v>
+        <v>21.66271265883942</v>
       </c>
       <c r="C16">
-        <v>16.2625618722625</v>
+        <v>8.459537777294475</v>
       </c>
       <c r="D16">
-        <v>12.13405774545745</v>
+        <v>10.73330721397121</v>
       </c>
       <c r="E16">
-        <v>7.56037319319107</v>
+        <v>10.24388967743694</v>
       </c>
       <c r="F16">
-        <v>77.63900910421484</v>
+        <v>57.45853464763982</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.493357532584191</v>
+        <v>10.04113262462804</v>
       </c>
       <c r="M16">
-        <v>15.20911756716112</v>
+        <v>17.75152915820444</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.28631523392885</v>
+        <v>21.54697008781179</v>
       </c>
       <c r="C17">
-        <v>15.87797002271641</v>
+        <v>8.293737220754009</v>
       </c>
       <c r="D17">
-        <v>11.94084801873076</v>
+        <v>10.67856271682712</v>
       </c>
       <c r="E17">
-        <v>7.520059106900076</v>
+        <v>10.2344540672909</v>
       </c>
       <c r="F17">
-        <v>76.03316940377486</v>
+        <v>56.95083404100089</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.450446908963428</v>
+        <v>10.04412948726086</v>
       </c>
       <c r="M17">
-        <v>14.84004847074633</v>
+        <v>17.73751848756593</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.90095969598305</v>
+        <v>21.48102482537227</v>
       </c>
       <c r="C18">
-        <v>15.65570590306002</v>
+        <v>8.19685040729993</v>
       </c>
       <c r="D18">
-        <v>11.82982010375575</v>
+        <v>10.64697010841527</v>
       </c>
       <c r="E18">
-        <v>7.497170051292041</v>
+        <v>10.22897544943084</v>
       </c>
       <c r="F18">
-        <v>75.10631238532577</v>
+        <v>56.65751231165109</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.426268392885881</v>
+        <v>10.046004417682</v>
       </c>
       <c r="M18">
-        <v>14.62613507046246</v>
+        <v>17.72996324385311</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77005678704219</v>
+        <v>21.45880700017663</v>
       </c>
       <c r="C19">
-        <v>15.58025431298254</v>
+        <v>8.163784419350769</v>
       </c>
       <c r="D19">
-        <v>11.7922401498139</v>
+        <v>10.636255795973</v>
       </c>
       <c r="E19">
-        <v>7.489467620759751</v>
+        <v>10.22711160167364</v>
       </c>
       <c r="F19">
-        <v>74.7919046823182</v>
+        <v>56.55798236487642</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.418166321431916</v>
+        <v>10.0466652053677</v>
       </c>
       <c r="M19">
-        <v>14.55341563125834</v>
+        <v>17.72749172045709</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.35743708725284</v>
+        <v>21.55922679485298</v>
       </c>
       <c r="C20">
-        <v>15.91901619607926</v>
+        <v>8.311544508446762</v>
       </c>
       <c r="D20">
-        <v>11.9614037800486</v>
+        <v>10.68440133562155</v>
       </c>
       <c r="E20">
-        <v>7.524318776027966</v>
+        <v>10.2354638260526</v>
       </c>
       <c r="F20">
-        <v>76.20443809669426</v>
+        <v>57.00501667418063</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.454962334493416</v>
+        <v>10.0437948154065</v>
       </c>
       <c r="M20">
-        <v>14.87950295386581</v>
+        <v>17.7389578812116</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.30413349524615</v>
+        <v>21.90392955207754</v>
       </c>
       <c r="C21">
-        <v>17.0458050472135</v>
+        <v>8.78982453069232</v>
       </c>
       <c r="D21">
-        <v>12.53141400776473</v>
+        <v>10.84487671910193</v>
       </c>
       <c r="E21">
-        <v>7.645292714863501</v>
+        <v>10.26291346073596</v>
       </c>
       <c r="F21">
-        <v>80.91497380057743</v>
+        <v>58.49081184494388</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.584753037090874</v>
+        <v>10.03595752947905</v>
       </c>
       <c r="M21">
-        <v>15.95648254138843</v>
+        <v>17.78348747928742</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.56039824343722</v>
+        <v>22.13423851302335</v>
       </c>
       <c r="C22">
-        <v>17.77675906856168</v>
+        <v>9.088909640996951</v>
       </c>
       <c r="D22">
-        <v>12.90628359594713</v>
+        <v>10.94872438651351</v>
       </c>
       <c r="E22">
-        <v>7.728022228385761</v>
+        <v>10.28040284695567</v>
       </c>
       <c r="F22">
-        <v>83.97514932982484</v>
+        <v>59.44852022281055</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.67455924272237</v>
+        <v>10.03218230362264</v>
       </c>
       <c r="M22">
-        <v>16.6486811924221</v>
+        <v>17.81704386016255</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.89108664043144</v>
+        <v>22.01088549948932</v>
       </c>
       <c r="C23">
-        <v>17.38691974255827</v>
+        <v>8.930514261058102</v>
       </c>
       <c r="D23">
-        <v>12.70591330451501</v>
+        <v>10.89339802329256</v>
       </c>
       <c r="E23">
-        <v>7.683477102097558</v>
+        <v>10.27110926235294</v>
       </c>
       <c r="F23">
-        <v>82.34297630696943</v>
+        <v>58.93867418625582</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.626144607668233</v>
+        <v>10.03407396541906</v>
       </c>
       <c r="M23">
-        <v>16.28015326323039</v>
+        <v>17.79872822334609</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.3252908980008</v>
+        <v>21.55368367291763</v>
       </c>
       <c r="C24">
-        <v>15.90046286589735</v>
+        <v>8.303498711652564</v>
       </c>
       <c r="D24">
-        <v>11.95211037601863</v>
+        <v>10.68176206647097</v>
       </c>
       <c r="E24">
-        <v>7.52239209272446</v>
+        <v>10.23500748227912</v>
       </c>
       <c r="F24">
-        <v>76.12701895523163</v>
+        <v>56.9805251649322</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.452919385286148</v>
+        <v>10.04394564712904</v>
       </c>
       <c r="M24">
-        <v>14.86167100253703</v>
+        <v>17.73830557467</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.46503091183212</v>
+        <v>21.08479358039362</v>
       </c>
       <c r="C25">
-        <v>14.25526459595835</v>
+        <v>7.568917841879745</v>
       </c>
       <c r="D25">
-        <v>11.14251318515662</v>
+        <v>10.44952250100252</v>
       </c>
       <c r="E25">
-        <v>7.359700810140389</v>
+        <v>10.19409191574797</v>
       </c>
       <c r="F25">
-        <v>69.29655993848701</v>
+        <v>54.8195875211778</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.285098480322879</v>
+        <v>10.06037428862314</v>
       </c>
       <c r="M25">
-        <v>13.27109286680504</v>
+        <v>17.69238019449607</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.76321629402823</v>
+        <v>21.25894035411679</v>
       </c>
       <c r="C2">
-        <v>6.977608749697943</v>
+        <v>12.9917604537038</v>
       </c>
       <c r="D2">
-        <v>10.27562151199135</v>
+        <v>10.54432614371767</v>
       </c>
       <c r="E2">
-        <v>10.16221892711333</v>
+        <v>7.245365470490024</v>
       </c>
       <c r="F2">
-        <v>53.19640514517848</v>
+        <v>64.1244520363808</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.0774362490374</v>
+        <v>6.175790983413254</v>
       </c>
       <c r="M2">
-        <v>17.67519768825073</v>
+        <v>12.53917535502078</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.56136534886739</v>
+        <v>19.72362133337168</v>
       </c>
       <c r="C3">
-        <v>6.545288562992136</v>
+        <v>12.09670320904031</v>
       </c>
       <c r="D3">
-        <v>10.15621449206182</v>
+        <v>10.13612643714224</v>
       </c>
       <c r="E3">
-        <v>10.13950400312904</v>
+        <v>7.16972217605395</v>
       </c>
       <c r="F3">
-        <v>52.08178299165888</v>
+        <v>60.52158191526639</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.09209268637333</v>
+        <v>6.109759934385806</v>
       </c>
       <c r="M3">
-        <v>17.67393970846742</v>
+        <v>12.05479119475912</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.44576969684753</v>
+        <v>18.86076070429343</v>
       </c>
       <c r="C4">
-        <v>6.264247296778926</v>
+        <v>11.52635110431708</v>
       </c>
       <c r="D4">
-        <v>10.08222054588478</v>
+        <v>9.883851572180868</v>
       </c>
       <c r="E4">
-        <v>10.12499934053215</v>
+        <v>7.123766024032149</v>
       </c>
       <c r="F4">
-        <v>51.39215742805882</v>
+        <v>58.26075519414061</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.10261598828078</v>
+        <v>6.072943908010096</v>
       </c>
       <c r="M4">
-        <v>17.67828721713852</v>
+        <v>11.7633560589006</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.40081852552269</v>
+        <v>18.50459605630785</v>
       </c>
       <c r="C5">
-        <v>6.145800879674189</v>
+        <v>11.28849216677805</v>
       </c>
       <c r="D5">
-        <v>10.05191071914751</v>
+        <v>9.780620310630066</v>
       </c>
       <c r="E5">
-        <v>10.11894723115809</v>
+        <v>7.10510712482042</v>
       </c>
       <c r="F5">
-        <v>51.11011740943168</v>
+        <v>57.32740430032634</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.10728735383756</v>
+        <v>6.058845347988672</v>
       </c>
       <c r="M5">
-        <v>17.68134529523607</v>
+        <v>11.64616332446432</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.39348614657108</v>
+        <v>18.44518697112511</v>
       </c>
       <c r="C6">
-        <v>6.125896313449733</v>
+        <v>11.24866201128647</v>
       </c>
       <c r="D6">
-        <v>10.04686872945208</v>
+        <v>9.763452929519993</v>
       </c>
       <c r="E6">
-        <v>10.11793371346347</v>
+        <v>7.102011501633125</v>
       </c>
       <c r="F6">
-        <v>51.06323286136544</v>
+        <v>57.17170442742449</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.10808615715359</v>
+        <v>6.056557977058602</v>
       </c>
       <c r="M6">
-        <v>17.6819307377885</v>
+        <v>11.6268006801477</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.44515467217429</v>
+        <v>18.85597547435525</v>
       </c>
       <c r="C7">
-        <v>6.262665753540077</v>
+        <v>11.52316552012714</v>
       </c>
       <c r="D7">
-        <v>10.08181239341771</v>
+        <v>9.882461096207784</v>
       </c>
       <c r="E7">
-        <v>10.12491829344944</v>
+        <v>7.12351417310196</v>
       </c>
       <c r="F7">
-        <v>51.38835742474635</v>
+        <v>58.24821605708848</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.10267743738784</v>
+        <v>6.072750150829434</v>
       </c>
       <c r="M7">
-        <v>17.67832325266087</v>
+        <v>11.76176909930201</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6919228460544</v>
+        <v>20.72677228771881</v>
       </c>
       <c r="C8">
-        <v>6.831781386851278</v>
+        <v>12.68732215173516</v>
       </c>
       <c r="D8">
-        <v>10.2345988211957</v>
+        <v>10.40390391113602</v>
       </c>
       <c r="E8">
-        <v>10.15450187114364</v>
+        <v>7.219147293932263</v>
       </c>
       <c r="F8">
-        <v>52.81335284625705</v>
+        <v>62.8923206664245</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.08217331218374</v>
+        <v>6.152229365961178</v>
       </c>
       <c r="M8">
-        <v>17.67370094145011</v>
+        <v>12.37095104883407</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.23924707961427</v>
+        <v>24.44290489763859</v>
       </c>
       <c r="C9">
-        <v>7.82417764835749</v>
+        <v>14.81660584420604</v>
       </c>
       <c r="D9">
-        <v>10.52823790623448</v>
+        <v>11.41528369925006</v>
       </c>
       <c r="E9">
-        <v>10.20814250218243</v>
+        <v>7.413419664753618</v>
       </c>
       <c r="F9">
-        <v>55.55317911498521</v>
+        <v>71.61786206572484</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.0540684554424</v>
+        <v>6.339289337254121</v>
       </c>
       <c r="M9">
-        <v>17.70527014309141</v>
+        <v>13.81451578522669</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.67600274356195</v>
+        <v>27.02783258550906</v>
       </c>
       <c r="C10">
-        <v>8.478250637466774</v>
+        <v>16.30631534443789</v>
       </c>
       <c r="D10">
-        <v>10.73953937687208</v>
+        <v>12.15612224180582</v>
       </c>
       <c r="E10">
-        <v>10.24495939471997</v>
+        <v>7.565016839826688</v>
       </c>
       <c r="F10">
-        <v>57.51628383688244</v>
+        <v>77.82184008227459</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.04081115358287</v>
+        <v>6.498323579633679</v>
       </c>
       <c r="M10">
-        <v>17.75319598954592</v>
+        <v>15.25101836080336</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.8812916236734</v>
+        <v>28.17901339239241</v>
       </c>
       <c r="C11">
-        <v>8.759620414251277</v>
+        <v>16.97317745366833</v>
       </c>
       <c r="D11">
-        <v>10.83453680030568</v>
+        <v>12.49436764326045</v>
       </c>
       <c r="E11">
-        <v>10.26116114932778</v>
+        <v>7.637257557978483</v>
       </c>
       <c r="F11">
-        <v>58.395286151267</v>
+        <v>80.61099556091129</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.03638687428098</v>
+        <v>6.576061221172311</v>
       </c>
       <c r="M11">
-        <v>17.78034195012398</v>
+        <v>15.88742534080992</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.959898871699</v>
+        <v>28.61211387160709</v>
       </c>
       <c r="C12">
-        <v>8.863852382217969</v>
+        <v>17.22470598963675</v>
       </c>
       <c r="D12">
-        <v>10.87033426203834</v>
+        <v>12.62283095212067</v>
       </c>
       <c r="E12">
-        <v>10.26721901117615</v>
+        <v>7.665227112858658</v>
       </c>
       <c r="F12">
-        <v>58.72587409507355</v>
+        <v>81.66385696667631</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.03494257431575</v>
+        <v>6.606345587334066</v>
       </c>
       <c r="M12">
-        <v>17.7913860556454</v>
+        <v>16.12637397106729</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.94293205826422</v>
+        <v>28.51895031366224</v>
       </c>
       <c r="C13">
-        <v>8.841507047008177</v>
+        <v>17.17056907320633</v>
       </c>
       <c r="D13">
-        <v>10.86263269005848</v>
+        <v>12.59514350605646</v>
       </c>
       <c r="E13">
-        <v>10.2659177652627</v>
+        <v>7.659173486090933</v>
       </c>
       <c r="F13">
-        <v>58.65478095806834</v>
+        <v>81.43722530511906</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.03524335246427</v>
+        <v>6.599784348684102</v>
       </c>
       <c r="M13">
-        <v>17.78897358077524</v>
+        <v>16.0749957099344</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.88774174614233</v>
+        <v>28.21469673406484</v>
       </c>
       <c r="C14">
-        <v>8.768242016561469</v>
+        <v>16.99388725003578</v>
       </c>
       <c r="D14">
-        <v>10.83748548706565</v>
+        <v>12.50492748972235</v>
       </c>
       <c r="E14">
-        <v>10.26166107746948</v>
+        <v>7.639545410061343</v>
       </c>
       <c r="F14">
-        <v>58.42253073841937</v>
+        <v>80.6976721859716</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.03626341953428</v>
+        <v>6.578535301317205</v>
       </c>
       <c r="M14">
-        <v>17.78123525927684</v>
+        <v>15.90712215357819</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.8540468012027</v>
+        <v>28.02798885432611</v>
       </c>
       <c r="C15">
-        <v>8.723063649627303</v>
+        <v>16.8855530910749</v>
       </c>
       <c r="D15">
-        <v>10.82205875991609</v>
+        <v>12.44972358863865</v>
       </c>
       <c r="E15">
-        <v>10.25904369005465</v>
+        <v>7.627607286451255</v>
       </c>
       <c r="F15">
-        <v>58.27996772153682</v>
+        <v>80.24429022369532</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.03691833422571</v>
+        <v>6.565632293919093</v>
       </c>
       <c r="M15">
-        <v>17.77659474316795</v>
+        <v>15.80404188971477</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.66271265883942</v>
+        <v>26.9521614805656</v>
       </c>
       <c r="C16">
-        <v>8.459537777294475</v>
+        <v>16.26256187226262</v>
       </c>
       <c r="D16">
-        <v>10.73330721397121</v>
+        <v>12.13405774545735</v>
       </c>
       <c r="E16">
-        <v>10.24388967743694</v>
+        <v>7.560373193191125</v>
       </c>
       <c r="F16">
-        <v>57.45853464763982</v>
+        <v>77.63900910421432</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.04113262462804</v>
+        <v>6.493357532584184</v>
       </c>
       <c r="M16">
-        <v>17.75152915820444</v>
+        <v>15.20911756716107</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.54697008781179</v>
+        <v>26.28631523392886</v>
       </c>
       <c r="C17">
-        <v>8.293737220754009</v>
+        <v>15.87797002271632</v>
       </c>
       <c r="D17">
-        <v>10.67856271682712</v>
+        <v>11.9408480187307</v>
       </c>
       <c r="E17">
-        <v>10.2344540672909</v>
+        <v>7.520059106900141</v>
       </c>
       <c r="F17">
-        <v>56.95083404100089</v>
+        <v>76.03316940377471</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.04412948726086</v>
+        <v>6.450446908963412</v>
       </c>
       <c r="M17">
-        <v>17.73751848756593</v>
+        <v>14.84004847074633</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.48102482537227</v>
+        <v>25.90095969598304</v>
       </c>
       <c r="C18">
-        <v>8.19685040729993</v>
+        <v>15.65570590306042</v>
       </c>
       <c r="D18">
-        <v>10.64697010841527</v>
+        <v>11.82982010375588</v>
       </c>
       <c r="E18">
-        <v>10.22897544943084</v>
+        <v>7.497170051292044</v>
       </c>
       <c r="F18">
-        <v>56.65751231165109</v>
+        <v>75.10631238532591</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.046004417682</v>
+        <v>6.426268392885862</v>
       </c>
       <c r="M18">
-        <v>17.72996324385311</v>
+        <v>14.62613507046252</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.45880700017663</v>
+        <v>25.77005678704223</v>
       </c>
       <c r="C19">
-        <v>8.163784419350769</v>
+        <v>15.58025431298256</v>
       </c>
       <c r="D19">
-        <v>10.636255795973</v>
+        <v>11.79224014981392</v>
       </c>
       <c r="E19">
-        <v>10.22711160167364</v>
+        <v>7.489467620759875</v>
       </c>
       <c r="F19">
-        <v>56.55798236487642</v>
+        <v>74.79190468231818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.0466652053677</v>
+        <v>6.41816632143196</v>
       </c>
       <c r="M19">
-        <v>17.72749172045709</v>
+        <v>14.55341563125834</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.55922679485298</v>
+        <v>26.35743708725291</v>
       </c>
       <c r="C20">
-        <v>8.311544508446762</v>
+        <v>15.91901619607915</v>
       </c>
       <c r="D20">
-        <v>10.68440133562155</v>
+        <v>11.96140378004866</v>
       </c>
       <c r="E20">
-        <v>10.2354638260526</v>
+        <v>7.524318776027893</v>
       </c>
       <c r="F20">
-        <v>57.00501667418063</v>
+        <v>76.20443809669408</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.0437948154065</v>
+        <v>6.454962334493371</v>
       </c>
       <c r="M20">
-        <v>17.7389578812116</v>
+        <v>14.87950295386581</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.90392955207754</v>
+        <v>28.30413349524632</v>
       </c>
       <c r="C21">
-        <v>8.78982453069232</v>
+        <v>17.04580504721361</v>
       </c>
       <c r="D21">
-        <v>10.84487671910193</v>
+        <v>12.53141400776482</v>
       </c>
       <c r="E21">
-        <v>10.26291346073596</v>
+        <v>7.645292714863785</v>
       </c>
       <c r="F21">
-        <v>58.49081184494388</v>
+        <v>80.91497380057822</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.03595752947905</v>
+        <v>6.584753037090889</v>
       </c>
       <c r="M21">
-        <v>17.78348747928742</v>
+        <v>15.95648254138851</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.13423851302335</v>
+        <v>29.56039824343729</v>
       </c>
       <c r="C22">
-        <v>9.088909640996951</v>
+        <v>17.77675906856187</v>
       </c>
       <c r="D22">
-        <v>10.94872438651351</v>
+        <v>12.90628359594725</v>
       </c>
       <c r="E22">
-        <v>10.28040284695567</v>
+        <v>7.728022228385781</v>
       </c>
       <c r="F22">
-        <v>59.44852022281055</v>
+        <v>83.97514932982575</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.03218230362264</v>
+        <v>6.674559242722411</v>
       </c>
       <c r="M22">
-        <v>17.81704386016255</v>
+        <v>16.64868119242219</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.01088549948932</v>
+        <v>28.89108664043159</v>
       </c>
       <c r="C23">
-        <v>8.930514261058102</v>
+        <v>17.38691974255832</v>
       </c>
       <c r="D23">
-        <v>10.89339802329256</v>
+        <v>12.7059133045152</v>
       </c>
       <c r="E23">
-        <v>10.27110926235294</v>
+        <v>7.683477102097656</v>
       </c>
       <c r="F23">
-        <v>58.93867418625582</v>
+        <v>82.34297630697046</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.03407396541906</v>
+        <v>6.626144607668218</v>
       </c>
       <c r="M23">
-        <v>17.79872822334609</v>
+        <v>16.28015326323049</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.55368367291763</v>
+        <v>26.32529089800079</v>
       </c>
       <c r="C24">
-        <v>8.303498711652564</v>
+        <v>15.9004628658973</v>
       </c>
       <c r="D24">
-        <v>10.68176206647097</v>
+        <v>11.95211037601868</v>
       </c>
       <c r="E24">
-        <v>10.23500748227912</v>
+        <v>7.52239209272446</v>
       </c>
       <c r="F24">
-        <v>56.9805251649322</v>
+        <v>76.1270189552317</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.04394564712904</v>
+        <v>6.452919385286095</v>
       </c>
       <c r="M24">
-        <v>17.73830557467</v>
+        <v>14.86167100253707</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.08479358039362</v>
+        <v>23.46503091183222</v>
       </c>
       <c r="C25">
-        <v>7.568917841879745</v>
+        <v>14.25526459595829</v>
       </c>
       <c r="D25">
-        <v>10.44952250100252</v>
+        <v>11.14251318515677</v>
       </c>
       <c r="E25">
-        <v>10.19409191574797</v>
+        <v>7.359700810140215</v>
       </c>
       <c r="F25">
-        <v>54.8195875211778</v>
+        <v>69.29655993848792</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.06037428862314</v>
+        <v>6.285098480322747</v>
       </c>
       <c r="M25">
-        <v>17.69238019449607</v>
+        <v>13.27109286680498</v>
       </c>
       <c r="N25">
         <v>0</v>
